--- a/BackEnd/LogData/output.xlsx
+++ b/BackEnd/LogData/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>userId</t>
   </si>
@@ -43,7 +43,7 @@
     <t>newPred_DiCE</t>
   </si>
   <si>
-    <t>0c5a398850274513a524ca25489177dd</t>
+    <t>d482a28165234201acf8b943bb0505a3</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,93 +465,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>61</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>47</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>47</v>
-      </c>
-      <c r="H4">
-        <v>43</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BackEnd/LogData/output.xlsx
+++ b/BackEnd/LogData/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>userId</t>
   </si>
@@ -43,7 +43,103 @@
     <t>newPred_DiCE</t>
   </si>
   <si>
-    <t>d482a28165234201acf8b943bb0505a3</t>
+    <t>04b435268025427aabf4d050edfc8285</t>
+  </si>
+  <si>
+    <t>0c5a398850274513a524ca25489177dd</t>
+  </si>
+  <si>
+    <t>0df1ffd7264e46cd9bb0325c3f908872</t>
+  </si>
+  <si>
+    <t>18c4bc02b8c444828e014cc048470dfa</t>
+  </si>
+  <si>
+    <t>1b2ba3603ac44f589ee5b58bcea5aecf</t>
+  </si>
+  <si>
+    <t>23dc6d5abee0424fb4fa25bb7644e1c1</t>
+  </si>
+  <si>
+    <t>28797d42869949ae8e6ac1d2735bee40</t>
+  </si>
+  <si>
+    <t>2e088bd232ac49fc918d113be42a3dce</t>
+  </si>
+  <si>
+    <t>3bff51700bb741c59c1292622b43e3e1</t>
+  </si>
+  <si>
+    <t>4abaa1e2310141b1b1996c090def7811</t>
+  </si>
+  <si>
+    <t>596e7de46bff419088527cc2051e586d</t>
+  </si>
+  <si>
+    <t>5ed3aa0eb27046c796d2d6d7570e227d</t>
+  </si>
+  <si>
+    <t>6269a96f906e41e79b6f61b3bf6b1501</t>
+  </si>
+  <si>
+    <t>75696bfa4201473c86636acef7764a52</t>
+  </si>
+  <si>
+    <t>82b5d3f8450b448b909d9d87eaeea597</t>
+  </si>
+  <si>
+    <t>83294a7da4fd4fc39b43599e760c48fa</t>
+  </si>
+  <si>
+    <t>8558bba87a1b4ae9862dafd79179399c</t>
+  </si>
+  <si>
+    <t>92a479b641644ccd8d6777569d5c424c</t>
+  </si>
+  <si>
+    <t>9554a4dab69d47b8b6d27d1d2845aa60</t>
+  </si>
+  <si>
+    <t>9c9f4337dd494bf2ae5391557110c17e</t>
+  </si>
+  <si>
+    <t>a389eae27241481bbeb660d46e01d6d9</t>
+  </si>
+  <si>
+    <t>ad710da61fb64673b1b00172e23e32cc</t>
+  </si>
+  <si>
+    <t>aec07956216b48e09afe78205888c6a9</t>
+  </si>
+  <si>
+    <t>b44a8beee9c6461ca663994417bf7dcc</t>
+  </si>
+  <si>
+    <t>c7b2519587e9444ab55d21e29efcfe7e</t>
+  </si>
+  <si>
+    <t>d1197f697db848bc82ef4528c8857448</t>
+  </si>
+  <si>
+    <t>dfbf6dfa21fa44ecb82f46bd51450322</t>
+  </si>
+  <si>
+    <t>dfe9ccfe38dc4c0589afe541f246dbcf</t>
+  </si>
+  <si>
+    <t>e4dc9c10a3684c9b98b9df43c6a68341</t>
+  </si>
+  <si>
+    <t>e754f5f518224e18991e44951ee3444e</t>
+  </si>
+  <si>
+    <t>f4d2acf5737a4d04958f86c8b9a75f9e</t>
+  </si>
+  <si>
+    <t>f75b60d67d544a8a87d53d7955dfa96e</t>
+  </si>
+  <si>
+    <t>fb9534c4423047bd9e7ecefea1a8df92</t>
   </si>
 </sst>
 </file>
@@ -401,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,13 +543,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -462,7 +558,2443 @@
         <v>61</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>-21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>61</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>61</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>61</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>61</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>61</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>-21</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>63</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>61</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>61</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <v>43</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>61</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>61</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>61</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>63</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <v>61</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>61</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>63</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <v>61</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <v>61</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>47</v>
+      </c>
+      <c r="H39">
+        <v>43</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>47</v>
+      </c>
+      <c r="H40">
+        <v>43</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>78</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>55</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>63</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>29</v>
+      </c>
+      <c r="H43">
+        <v>61</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>61</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>29</v>
+      </c>
+      <c r="H45">
+        <v>61</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>47</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>59</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>61</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>29</v>
+      </c>
+      <c r="H48">
+        <v>61</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>61</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>65</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>61</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>63</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>29</v>
+      </c>
+      <c r="H51">
+        <v>61</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>61</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>29</v>
+      </c>
+      <c r="H52">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>65</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>29</v>
+      </c>
+      <c r="H53">
+        <v>61</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>29</v>
+      </c>
+      <c r="H54">
+        <v>61</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>61</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>47</v>
+      </c>
+      <c r="H55">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>47</v>
+      </c>
+      <c r="E56">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>47</v>
+      </c>
+      <c r="H56">
+        <v>43</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>29</v>
+      </c>
+      <c r="H57">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>65</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>29</v>
+      </c>
+      <c r="H58">
+        <v>61</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>63</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>29</v>
+      </c>
+      <c r="H59">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>61</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>61</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>29</v>
+      </c>
+      <c r="H61">
+        <v>61</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>61</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>47</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>47</v>
+      </c>
+      <c r="H63">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>61</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>29</v>
+      </c>
+      <c r="H65">
+        <v>61</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>61</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>61</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>63</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>29</v>
+      </c>
+      <c r="H67">
+        <v>61</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>29</v>
+      </c>
+      <c r="H68">
+        <v>61</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>47</v>
+      </c>
+      <c r="H69">
+        <v>14</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>35</v>
+      </c>
+      <c r="H70">
+        <v>-21</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>29</v>
+      </c>
+      <c r="H71">
+        <v>61</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>29</v>
+      </c>
+      <c r="H72">
+        <v>61</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>29</v>
+      </c>
+      <c r="E73">
+        <v>61</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>29</v>
+      </c>
+      <c r="H73">
+        <v>61</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>47</v>
+      </c>
+      <c r="H74">
+        <v>14</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>-21</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>29</v>
+      </c>
+      <c r="H76">
+        <v>61</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>29</v>
+      </c>
+      <c r="E77">
+        <v>61</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>29</v>
+      </c>
+      <c r="H77">
+        <v>61</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>27</v>
+      </c>
+      <c r="E78">
+        <v>63</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>29</v>
+      </c>
+      <c r="H78">
+        <v>61</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="E79">
+        <v>61</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>29</v>
+      </c>
+      <c r="H79">
+        <v>61</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>65</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>29</v>
+      </c>
+      <c r="H80">
+        <v>61</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>61</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>29</v>
+      </c>
+      <c r="H81">
+        <v>61</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>29</v>
+      </c>
+      <c r="E82">
+        <v>61</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>29</v>
+      </c>
+      <c r="H82">
+        <v>61</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>29</v>
+      </c>
+      <c r="E83">
+        <v>61</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>29</v>
+      </c>
+      <c r="H83">
+        <v>61</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>47</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>47</v>
+      </c>
+      <c r="H84">
+        <v>14</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>35</v>
+      </c>
+      <c r="H85">
+        <v>-21</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>25</v>
+      </c>
+      <c r="E86">
+        <v>65</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>29</v>
+      </c>
+      <c r="H86">
+        <v>61</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/LogData/output.xlsx
+++ b/BackEnd/LogData/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>userId</t>
   </si>
@@ -43,16 +43,7 @@
     <t>newPred_DiCE</t>
   </si>
   <si>
-    <t>59d876bb3c4a4739ada2f1fa55f29e00</t>
-  </si>
-  <si>
-    <t>aaae9b60ec0941fa9cb80caa55ab0b78</t>
-  </si>
-  <si>
-    <t>d482a28165234201acf8b943bb0505a3</t>
-  </si>
-  <si>
-    <t>fa58848e0ec9443697f10ac607ee628c</t>
+    <t>09ee0a844a2345f393f2502ef4514d5b</t>
   </si>
 </sst>
 </file>
@@ -410,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -471,7 +462,7 @@
         <v>61</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,25 +470,25 @@
         <v>9</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -508,28 +499,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,198 +531,53 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>-21</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>47</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>-21</v>
-      </c>
-      <c r="I11">
         <v>1</v>
       </c>
     </row>
